--- a/script/omp_output_isi_raptor.xlsx
+++ b/script/omp_output_isi_raptor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\Progetti\HPC\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4CCFAA-2383-4431-8A54-94151D0CD3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7F673D-002F-4D7B-AEF1-3BCCF48A42FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1737,7 +1737,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,6 +1896,10 @@
       <c r="P3">
         <v>1</v>
       </c>
+      <c r="Q3">
+        <f>AVERAGEIFS(G$2:G$1248, $B$2:$B$1248, "=1")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1948,6 +1952,10 @@
       <c r="P4">
         <v>1.9704433497536948</v>
       </c>
+      <c r="Q4">
+        <f>AVERAGEIFS(G$2:G$1248,$B$2:$B$1248, "=2")</f>
+        <v>1.9704433497536986</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2000,6 +2008,10 @@
       <c r="P5">
         <v>2.912621359223301</v>
       </c>
+      <c r="Q5">
+        <f>AVERAGEIFS(G$2:G$1248, $B$2:$B$1248, "=3")</f>
+        <v>2.9126213592232961</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2052,6 +2064,10 @@
       <c r="P6">
         <v>3.8277511961722492</v>
       </c>
+      <c r="Q6">
+        <f>AVERAGEIFS(G$2:G$1248,$B$2:$B$1248, "=4")</f>
+        <v>3.8277511961722452</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2104,6 +2120,10 @@
       <c r="P7">
         <v>4.7169811320754711</v>
       </c>
+      <c r="Q7">
+        <f>AVERAGEIFS(G$2:G$1248, $B$2:$B$1248, "=5")</f>
+        <v>4.7169811320754764</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2156,6 +2176,10 @@
       <c r="P8">
         <v>5.5813953488372103</v>
       </c>
+      <c r="Q8">
+        <f>AVERAGEIFS(G$2:G$1248,$B$2:$B$1248, "=6")</f>
+        <v>5.5813953488372015</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2208,6 +2232,10 @@
       <c r="P9">
         <v>6.4220183486238538</v>
       </c>
+      <c r="Q9">
+        <f>AVERAGEIFS(G$2:G$1248, $B$2:$B$1248, "=7")</f>
+        <v>6.422018348623852</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2260,6 +2288,10 @@
       <c r="P10">
         <v>7.2398190045248869</v>
       </c>
+      <c r="Q10">
+        <f>AVERAGEIFS(G$2:G$1248,$B$2:$B$1248, "=8")</f>
+        <v>7.2398190045248718</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2312,6 +2344,10 @@
       <c r="P11">
         <v>8.0357142857142865</v>
       </c>
+      <c r="Q11">
+        <f>AVERAGEIFS(G$2:G$1248, $B$2:$B$1248, "=9")</f>
+        <v>8.0357142857142989</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2364,6 +2400,10 @@
       <c r="P12">
         <v>8.8105726872246688</v>
       </c>
+      <c r="Q12">
+        <f>AVERAGEIFS(G$2:G$1248,$B$2:$B$1248, "=10")</f>
+        <v>8.8105726872246617</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2416,6 +2456,10 @@
       <c r="P13">
         <v>9.5652173913043477</v>
       </c>
+      <c r="Q13">
+        <f>AVERAGEIFS(G$2:G$1248, $B$2:$B$1248, "=11")</f>
+        <v>9.5652173913043637</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E14" t="str">
@@ -2455,6 +2499,10 @@
       </c>
       <c r="P14">
         <v>10.300429184549357</v>
+      </c>
+      <c r="Q14">
+        <f>AVERAGEIFS(G$2:G$1248,$B$2:$B$1248, "=12")</f>
+        <v>10.300429184549337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">

--- a/script/omp_output_isi_raptor.xlsx
+++ b/script/omp_output_isi_raptor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\Progetti\HPC\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EACBE3-F739-46EC-8CC0-8B1AB75E8B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D035300-4531-4298-BE9E-4F74ADC37351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Avg. Speedup / Relative Speed</a:t>
+              <a:t>Average Speedup</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -332,40 +332,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>52.748758624999994</c:v>
+                  <c:v>21.595342500000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.556755572916661</c:v>
+                  <c:v>10.961174136363638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.77242138541666</c:v>
+                  <c:v>7.3209082499999987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.321151989583333</c:v>
+                  <c:v>5.4990040000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.660890864583331</c:v>
+                  <c:v>4.4218066818181816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9069475937499991</c:v>
+                  <c:v>3.6861743181818185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6575983645833325</c:v>
+                  <c:v>3.1703604545454542</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7308247083333308</c:v>
+                  <c:v>2.7838129318181819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0148355937499991</c:v>
+                  <c:v>2.4894610227272729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4125886666666672</c:v>
+                  <c:v>2.2542847727272726</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0091822812500011</c:v>
+                  <c:v>2.1599792500000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3471169375000045</c:v>
+                  <c:v>2.8445485909090915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,37 +425,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9590599502606691</c:v>
+                  <c:v>1.9542220469900313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9241323713465075</c:v>
+                  <c:v>2.9247493357044934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8842170890840841</c:v>
+                  <c:v>3.8897855639634602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8404744861565367</c:v>
+                  <c:v>4.8338754173074676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7772808525241075</c:v>
+                  <c:v>5.7782597158237579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6908491651316266</c:v>
+                  <c:v>6.7065803057821674</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5722546776521611</c:v>
+                  <c:v>7.6243647258453988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4223077579369114</c:v>
+                  <c:v>8.4932423843876865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3219998184695569</c:v>
+                  <c:v>9.3759333727183325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.007979597880061</c:v>
+                  <c:v>9.8955310047775225</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2844596211403871</c:v>
+                  <c:v>8.3433063060030452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,7 +616,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Processes</a:t>
+                  <a:t>N. of cores</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -735,7 +735,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>Time (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -902,6 +902,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Strong Scaling Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1033,6 +1058,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N. of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-150"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1097,6 +1177,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-150"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1219,7 +1354,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Avg. Speedup / Relative Speed</a:t>
+              <a:t>Average Speedup</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1256,9 +1391,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
@@ -1275,15 +1409,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$3:$N$14</c:f>
@@ -1294,44 +1442,135 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9590599502606691</c:v>
+                  <c:v>1.9542220469900313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9241323713465075</c:v>
+                  <c:v>2.9247493357044934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8842170890840841</c:v>
+                  <c:v>3.8897855639634602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8404744861565367</c:v>
+                  <c:v>4.8338754173074676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7772808525241075</c:v>
+                  <c:v>5.7782597158237579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6908491651316266</c:v>
+                  <c:v>6.7065803057821674</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5722546776521611</c:v>
+                  <c:v>7.6243647258453988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4223077579369114</c:v>
+                  <c:v>8.4932423843876865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3219998184695569</c:v>
+                  <c:v>9.3759333727183325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.007979597880061</c:v>
+                  <c:v>9.8955310047775225</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2844596211403871</c:v>
+                  <c:v>8.3433063060030452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CFC-4488-BE1C-FD68B706369C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Num. Processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C07-47E0-8AC7-A4973536093D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1343,12 +1582,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="923051008"/>
         <c:axId val="1301038064"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="0"/>
@@ -1370,15 +1610,29 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -1392,58 +1646,59 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>52.748758624999994</c:v>
+                        <c:v>21.595342500000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>26.556755572916661</c:v>
+                        <c:v>10.961174136363638</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17.77242138541666</c:v>
+                        <c:v>7.3209082499999987</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13.321151989583333</c:v>
+                        <c:v>5.4990040000000002</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>10.660890864583331</c:v>
+                        <c:v>4.4218066818181816</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>8.9069475937499991</c:v>
+                        <c:v>3.6861743181818185</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>7.6575983645833325</c:v>
+                        <c:v>3.1703604545454542</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6.7308247083333308</c:v>
+                        <c:v>2.7838129318181819</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>6.0148355937499991</c:v>
+                        <c:v>2.4894610227272729</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>5.4125886666666672</c:v>
+                        <c:v>2.2542847727272726</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>5.0091822812500011</c:v>
+                        <c:v>2.1599792500000001</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>5.3471169375000045</c:v>
+                        <c:v>2.8445485909090915</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-8CFC-4488-BE1C-FD68B706369C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$2</c15:sqref>
@@ -1459,18 +1714,32 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$3:$P$14</c15:sqref>
@@ -1519,16 +1788,17 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8CFC-4488-BE1C-FD68B706369C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="923051008"/>
         <c:scaling>
@@ -1557,7 +1827,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Processes</a:t>
+                  <a:t>N. of Cores</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1676,7 +1946,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1744,6 +2014,7 @@
         <c:crossAx val="923051008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3862,9 +4133,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q1249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,15 +4280,15 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <f>AVERAGEIFS(C$2:C$1248, $B$2:$B$1248, "=1")</f>
-        <v>52.748758624999994</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=1")</f>
+        <v>21.595342500000001</v>
       </c>
       <c r="N3">
-        <f>AVERAGEIFS(D$2:D$1248, $B$2:$B$1248, "=1")</f>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=1")</f>
         <v>1</v>
       </c>
       <c r="O3">
-        <f>AVERAGEIFS(E$2:E$1248, $B$2:$B$1248, "=1")</f>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=1")</f>
         <v>1</v>
       </c>
       <c r="P3">
@@ -4065,16 +4336,16 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <f>AVERAGEIFS(C$2:C$1248,$B$2:$B$1248, "=2")</f>
-        <v>26.556755572916661</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=2")</f>
+        <v>10.961174136363638</v>
       </c>
       <c r="N4">
-        <f>AVERAGEIFS(D$2:D$1248,$B$2:$B$1248, "=2")</f>
-        <v>1.9590599502606691</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=2")</f>
+        <v>1.9542220469900313</v>
       </c>
       <c r="O4">
-        <f>AVERAGEIFS(E$2:E$1248,$B$2:$B$1248, "=2")</f>
-        <v>0.97952997513033457</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=2")</f>
+        <v>0.97711102349501566</v>
       </c>
       <c r="P4">
         <v>1.9704433497536948</v>
@@ -4121,16 +4392,16 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <f>AVERAGEIFS(C$2:C$1248, $B$2:$B$1248, "=3")</f>
-        <v>17.77242138541666</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=3")</f>
+        <v>7.3209082499999987</v>
       </c>
       <c r="N5">
-        <f>AVERAGEIFS(D$2:D$1248, $B$2:$B$1248, "=3")</f>
-        <v>2.9241323713465075</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=3")</f>
+        <v>2.9247493357044934</v>
       </c>
       <c r="O5">
-        <f>AVERAGEIFS(E$2:E$1248, $B$2:$B$1248, "=3")</f>
-        <v>0.97471079044883646</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=3")</f>
+        <v>0.97491644523483134</v>
       </c>
       <c r="P5">
         <v>2.912621359223301</v>
@@ -4177,16 +4448,16 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <f>AVERAGEIFS(C$2:C$1248,$B$2:$B$1248, "=4")</f>
-        <v>13.321151989583333</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=4")</f>
+        <v>5.4990040000000002</v>
       </c>
       <c r="N6">
-        <f>AVERAGEIFS(D$2:D$1248,$B$2:$B$1248, "=4")</f>
-        <v>3.8842170890840841</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=4")</f>
+        <v>3.8897855639634602</v>
       </c>
       <c r="O6">
-        <f>AVERAGEIFS(E$2:E$1248,$B$2:$B$1248, "=4")</f>
-        <v>0.97105427227102104</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=4")</f>
+        <v>0.97244639099086505</v>
       </c>
       <c r="P6">
         <v>3.8277511961722492</v>
@@ -4233,16 +4504,16 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <f>AVERAGEIFS(C$2:C$1248, $B$2:$B$1248, "=5")</f>
-        <v>10.660890864583331</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=5")</f>
+        <v>4.4218066818181816</v>
       </c>
       <c r="N7">
-        <f>AVERAGEIFS(D$2:D$1248, $B$2:$B$1248, "=5")</f>
-        <v>4.8404744861565367</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=5")</f>
+        <v>4.8338754173074676</v>
       </c>
       <c r="O7">
-        <f>AVERAGEIFS(E$2:E$1248, $B$2:$B$1248, "=5")</f>
-        <v>0.96809489723130693</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=5")</f>
+        <v>0.96677508346149355</v>
       </c>
       <c r="P7">
         <v>4.7169811320754711</v>
@@ -4289,16 +4560,16 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <f>AVERAGEIFS(C$2:C$1248,$B$2:$B$1248, "=6")</f>
-        <v>8.9069475937499991</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=6")</f>
+        <v>3.6861743181818185</v>
       </c>
       <c r="N8">
-        <f>AVERAGEIFS(D$2:D$1248,$B$2:$B$1248, "=6")</f>
-        <v>5.7772808525241075</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=6")</f>
+        <v>5.7782597158237579</v>
       </c>
       <c r="O8">
-        <f>AVERAGEIFS(E$2:E$1248,$B$2:$B$1248, "=6")</f>
-        <v>0.9628801420873504</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=6")</f>
+        <v>0.96304328597062605</v>
       </c>
       <c r="P8">
         <v>5.5813953488372103</v>
@@ -4345,16 +4616,16 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <f>AVERAGEIFS(C$2:C$1248, $B$2:$B$1248, "=7")</f>
-        <v>7.6575983645833325</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=7")</f>
+        <v>3.1703604545454542</v>
       </c>
       <c r="N9">
-        <f>AVERAGEIFS(D$2:D$1248, $B$2:$B$1248, "=7")</f>
-        <v>6.6908491651316266</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=7")</f>
+        <v>6.7065803057821674</v>
       </c>
       <c r="O9">
-        <f>AVERAGEIFS(E$2:E$1248, $B$2:$B$1248, "=7")</f>
-        <v>0.95583559501880355</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=7")</f>
+        <v>0.95808290082602343</v>
       </c>
       <c r="P9">
         <v>6.4220183486238538</v>
@@ -4401,16 +4672,16 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <f>AVERAGEIFS(C$2:C$1248,$B$2:$B$1248, "=8")</f>
-        <v>6.7308247083333308</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=8")</f>
+        <v>2.7838129318181819</v>
       </c>
       <c r="N10">
-        <f>AVERAGEIFS(D$2:D$1248,$B$2:$B$1248, "=8")</f>
-        <v>7.5722546776521611</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=8")</f>
+        <v>7.6243647258453988</v>
       </c>
       <c r="O10">
-        <f>AVERAGEIFS(E$2:E$1248,$B$2:$B$1248, "=8")</f>
-        <v>0.94653183470652014</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=8")</f>
+        <v>0.95304559073067485</v>
       </c>
       <c r="P10">
         <v>7.2398190045248869</v>
@@ -4457,16 +4728,16 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <f>AVERAGEIFS(C$2:C$1248, $B$2:$B$1248, "=9")</f>
-        <v>6.0148355937499991</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=9")</f>
+        <v>2.4894610227272729</v>
       </c>
       <c r="N11">
-        <f>AVERAGEIFS(D$2:D$1248, $B$2:$B$1248, "=9")</f>
-        <v>8.4223077579369114</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=9")</f>
+        <v>8.4932423843876865</v>
       </c>
       <c r="O11">
-        <f>AVERAGEIFS(E$2:E$1248, $B$2:$B$1248, "=9")</f>
-        <v>0.93581197310410102</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=9")</f>
+        <v>0.94369359826529831</v>
       </c>
       <c r="P11">
         <v>8.0357142857142865</v>
@@ -4513,16 +4784,16 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <f>AVERAGEIFS(C$2:C$1248,$B$2:$B$1248, "=10")</f>
-        <v>5.4125886666666672</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=10")</f>
+        <v>2.2542847727272726</v>
       </c>
       <c r="N12">
-        <f>AVERAGEIFS(D$2:D$1248,$B$2:$B$1248, "=10")</f>
-        <v>9.3219998184695569</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=10")</f>
+        <v>9.3759333727183325</v>
       </c>
       <c r="O12">
-        <f>AVERAGEIFS(E$2:E$1248,$B$2:$B$1248, "=10")</f>
-        <v>0.93219998184695463</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=10")</f>
+        <v>0.93759333727183292</v>
       </c>
       <c r="P12">
         <v>8.8105726872246688</v>
@@ -4569,16 +4840,16 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <f>AVERAGEIFS(C$2:C$1248, $B$2:$B$1248, "=11")</f>
-        <v>5.0091822812500011</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=11")</f>
+        <v>2.1599792500000001</v>
       </c>
       <c r="N13">
-        <f>AVERAGEIFS(D$2:D$1248, $B$2:$B$1248, "=11")</f>
-        <v>10.007979597880061</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=11")</f>
+        <v>9.8955310047775225</v>
       </c>
       <c r="O13">
-        <f>AVERAGEIFS(E$2:E$1248, $B$2:$B$1248, "=11")</f>
-        <v>0.90981632708000537</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=11")</f>
+        <v>0.89959372770704771</v>
       </c>
       <c r="P13">
         <v>9.5652173913043477</v>
@@ -4613,16 +4884,16 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <f>AVERAGEIFS(C$2:C$1248,$B$2:$B$1248, "=12")</f>
-        <v>5.3471169375000045</v>
+        <f>AVERAGEIFS(C$119:C$690, $B$119:$B$690, "=12")</f>
+        <v>2.8445485909090915</v>
       </c>
       <c r="N14">
-        <f>AVERAGEIFS(D$2:D$1248,$B$2:$B$1248, "=12")</f>
-        <v>9.2844596211403871</v>
+        <f>AVERAGEIFS(D$119:D$690, $B$119:$B$690, "=12")</f>
+        <v>8.3433063060030452</v>
       </c>
       <c r="O14">
-        <f>AVERAGEIFS(E$2:E$1248,$B$2:$B$1248, "=12")</f>
-        <v>0.77370496842836578</v>
+        <f>AVERAGEIFS(E$119:E$690, $B$119:$B$690, "=12")</f>
+        <v>0.69527552550025395</v>
       </c>
       <c r="P14">
         <v>10.300429184549357</v>

--- a/script/omp_output_isi_raptor.xlsx
+++ b/script/omp_output_isi_raptor.xlsx
@@ -8,20 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\Progetti\HPC\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D035300-4531-4298-BE9E-4F74ADC37351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F49DE6-E4A1-47E4-A536-E4297FCDE1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1095" yWindow="1245" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$M$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$M$3:$M$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$N$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$N$3:$N$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$P$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$P$3:$P$14</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$Q$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$Q$3:$Q$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -922,7 +918,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Strong Scaling Efficiency</a:t>
+              <a:t>Strong Scaling Efficiency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -961,7 +957,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1047,7 +1043,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:overlap val="100"/>
         <c:axId val="728673472"/>
         <c:axId val="728666272"/>
       </c:barChart>
@@ -1354,7 +1350,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Speedup</a:t>
+              <a:t>Speedup</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1398,15 +1394,7 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Avg. Speedup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Speedup</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1488,21 +1476,14 @@
           <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Num. Processes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>N. of Cores</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4133,9 +4114,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q1249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
